--- a/biology/Botanique/Soupe_suanla/Soupe_suanla.xlsx
+++ b/biology/Botanique/Soupe_suanla/Soupe_suanla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La soupe suanla[1] (chinois : 酸辣汤 ; pinyin : suānlà tāng ; litt. « soupe aigre épicée ») est une spécialité gastronomique de la province du Sichuan. En France, on la propose dans presque tous les restaurants asiatiques, souvent sous le nom de potage pékinois[2].
+La soupe suanla (chinois : 酸辣汤 ; pinyin : suānlà tāng ; litt. « soupe aigre épicée ») est une spécialité gastronomique de la province du Sichuan. En France, on la propose dans presque tous les restaurants asiatiques, souvent sous le nom de potage pékinois.
 Les ingrédients de base sont les pousses de bambou, le lentin du chêne, du porc, des champignons noirs, des œufs brouillés, du sang de porc (boudin), du tofu, du vinaigre noir (zh), du poivre moulu et du piment séché.
 </t>
         </is>
